--- a/medicine/Mort/La_Mort_du_Sergent_Blandan/La_Mort_du_Sergent_Blandan.xlsx
+++ b/medicine/Mort/La_Mort_du_Sergent_Blandan/La_Mort_du_Sergent_Blandan.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La Mort du Sergent Blandan est une huile sur toile réalisée par le peintre français Louis-Théodore Devilly en 1882[1], représentant la mort du sergent Jean Pierre Hippolyte Blandan durant la bataille de Béni-Mered, du 11 avril 1842 en Algérie.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Mort du Sergent Blandan est une huile sur toile réalisée par le peintre français Louis-Théodore Devilly en 1882, représentant la mort du sergent Jean Pierre Hippolyte Blandan durant la bataille de Béni-Mered, du 11 avril 1842 en Algérie.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Contexte de la bataille</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Voir Battle of Beni Mered. 
 </t>
@@ -542,7 +556,9 @@
           <t>Informations sur l'œuvre</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les raisons de la création du tableau par Devilly sont encore floues. La principale hypothèse serait celle d'une commande du gouvernement français. Le tableau est peint en 1882 soit 40 ans après l'année de la bataille (1842) et il est une reconstitution basée sur les témoignages et les enquêtes réalisées par Devilly. 
 Le tableau a été offert à la ville de Nancy en 1882 après avoir été acquis par l'Etat alors que le tableau était exposé au Salon des artistes français la même année. 
